--- a/po_analysis_by_asin/B07GBM3M88_po_data.xlsx
+++ b/po_analysis_by_asin/B07GBM3M88_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,55 +452,55 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45299</v>
+        <v>45214.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45306</v>
+        <v>45235.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45313</v>
+        <v>45263.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45327</v>
+        <v>45270.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45334</v>
+        <v>45277.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>90</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45341</v>
+        <v>45305.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45348</v>
+        <v>45312.99999999999</v>
       </c>
       <c r="B8" t="n">
         <v>30</v>
@@ -508,15 +508,15 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45355</v>
+        <v>45319.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45460</v>
+        <v>45333.99999999999</v>
       </c>
       <c r="B10" t="n">
         <v>60</v>
@@ -524,33 +524,73 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45488</v>
+        <v>45340.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>20</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45495</v>
+        <v>45347.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45502</v>
+        <v>45354.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45509</v>
+        <v>45361.99999999999</v>
       </c>
       <c r="B14" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45466.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45494.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45501.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45508.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45515.99999999999</v>
+      </c>
+      <c r="B19" t="n">
         <v>20</v>
       </c>
     </row>
@@ -565,7 +605,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -587,49 +627,73 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>45230.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>120</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45323</v>
+        <v>45260.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>210</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45352</v>
+        <v>45291.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45444</v>
+        <v>45322.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45474</v>
+        <v>45351.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>60</v>
+        <v>210</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45505</v>
+        <v>45382.99999999999</v>
       </c>
       <c r="B7" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45504.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45535.99999999999</v>
+      </c>
+      <c r="B10" t="n">
         <v>20</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B07GBM3M88_po_data.xlsx
+++ b/po_analysis_by_asin/B07GBM3M88_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -621,7 +622,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -695,6 +696,411 @@
       </c>
       <c r="B10" t="n">
         <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45214.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>29</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.888753029666455</v>
+      </c>
+      <c r="D2" t="n">
+        <v>56.36494336014714</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45235.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>29</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2.759822829831957</v>
+      </c>
+      <c r="D3" t="n">
+        <v>58.27750782428254</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45263.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>30</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.659372201851506</v>
+      </c>
+      <c r="D4" t="n">
+        <v>57.26083124455664</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45270.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>30</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2.287553177262828</v>
+      </c>
+      <c r="D5" t="n">
+        <v>56.26076412389211</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45277.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>30</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4.355690233101096</v>
+      </c>
+      <c r="D6" t="n">
+        <v>57.91129334983975</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45305.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>30</v>
+      </c>
+      <c r="C7" t="n">
+        <v>4.52435876303181</v>
+      </c>
+      <c r="D7" t="n">
+        <v>56.87394344040434</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45312.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>30</v>
+      </c>
+      <c r="C8" t="n">
+        <v>3.920292707682411</v>
+      </c>
+      <c r="D8" t="n">
+        <v>56.55592630127268</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45319.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>31</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2.891111609681694</v>
+      </c>
+      <c r="D9" t="n">
+        <v>58.78386444871656</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>31</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4.2394886726529</v>
+      </c>
+      <c r="D10" t="n">
+        <v>56.91767353886675</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45340.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>31</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2.201501208332673</v>
+      </c>
+      <c r="D11" t="n">
+        <v>56.73757031733999</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45347.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>31</v>
+      </c>
+      <c r="C12" t="n">
+        <v>4.103295025249579</v>
+      </c>
+      <c r="D12" t="n">
+        <v>59.31914075581988</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45354.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>31</v>
+      </c>
+      <c r="C13" t="n">
+        <v>3.013587453275552</v>
+      </c>
+      <c r="D13" t="n">
+        <v>57.79027972602176</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>31</v>
+      </c>
+      <c r="C14" t="n">
+        <v>3.577674570826562</v>
+      </c>
+      <c r="D14" t="n">
+        <v>58.25042706926642</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45466.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>33</v>
+      </c>
+      <c r="C15" t="n">
+        <v>8.377561011263136</v>
+      </c>
+      <c r="D15" t="n">
+        <v>59.89815449138727</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45494.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>33</v>
+      </c>
+      <c r="C16" t="n">
+        <v>6.68827866593017</v>
+      </c>
+      <c r="D16" t="n">
+        <v>58.87521913083351</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45501.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>34</v>
+      </c>
+      <c r="C17" t="n">
+        <v>6.823617767283786</v>
+      </c>
+      <c r="D17" t="n">
+        <v>60.37041078797369</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45508.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>34</v>
+      </c>
+      <c r="C18" t="n">
+        <v>7.343278590487138</v>
+      </c>
+      <c r="D18" t="n">
+        <v>59.02498318350678</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45515.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>34</v>
+      </c>
+      <c r="C19" t="n">
+        <v>6.625711563674409</v>
+      </c>
+      <c r="D19" t="n">
+        <v>62.61387832741005</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45522.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>34</v>
+      </c>
+      <c r="C20" t="n">
+        <v>7.772155340892239</v>
+      </c>
+      <c r="D20" t="n">
+        <v>61.29514030100341</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45529.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>34</v>
+      </c>
+      <c r="C21" t="n">
+        <v>6.088012314461671</v>
+      </c>
+      <c r="D21" t="n">
+        <v>61.34652331791003</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45536.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>34</v>
+      </c>
+      <c r="C22" t="n">
+        <v>6.108234337149637</v>
+      </c>
+      <c r="D22" t="n">
+        <v>61.57512716891081</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45543.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>34</v>
+      </c>
+      <c r="C23" t="n">
+        <v>6.950286781327389</v>
+      </c>
+      <c r="D23" t="n">
+        <v>61.4398277222503</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45550.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>34</v>
+      </c>
+      <c r="C24" t="n">
+        <v>7.928584382993296</v>
+      </c>
+      <c r="D24" t="n">
+        <v>62.90389624290636</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>34</v>
+      </c>
+      <c r="C25" t="n">
+        <v>7.526419840408679</v>
+      </c>
+      <c r="D25" t="n">
+        <v>61.55166569577379</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45564.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>35</v>
+      </c>
+      <c r="C26" t="n">
+        <v>7.590394438775357</v>
+      </c>
+      <c r="D26" t="n">
+        <v>60.48014114465117</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45571.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>35</v>
+      </c>
+      <c r="C27" t="n">
+        <v>8.13875284890789</v>
+      </c>
+      <c r="D27" t="n">
+        <v>61.79031791955092</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B07GBM3M88_po_data.xlsx
+++ b/po_analysis_by_asin/B07GBM3M88_po_data.xlsx
@@ -709,7 +709,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -728,16 +728,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -746,12 +736,6 @@
       <c r="B2" t="n">
         <v>29</v>
       </c>
-      <c r="C2" t="n">
-        <v>1.888753029666455</v>
-      </c>
-      <c r="D2" t="n">
-        <v>56.36494336014714</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -760,12 +744,6 @@
       <c r="B3" t="n">
         <v>29</v>
       </c>
-      <c r="C3" t="n">
-        <v>2.759822829831957</v>
-      </c>
-      <c r="D3" t="n">
-        <v>58.27750782428254</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -774,12 +752,6 @@
       <c r="B4" t="n">
         <v>30</v>
       </c>
-      <c r="C4" t="n">
-        <v>2.659372201851506</v>
-      </c>
-      <c r="D4" t="n">
-        <v>57.26083124455664</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -788,12 +760,6 @@
       <c r="B5" t="n">
         <v>30</v>
       </c>
-      <c r="C5" t="n">
-        <v>2.287553177262828</v>
-      </c>
-      <c r="D5" t="n">
-        <v>56.26076412389211</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -802,12 +768,6 @@
       <c r="B6" t="n">
         <v>30</v>
       </c>
-      <c r="C6" t="n">
-        <v>4.355690233101096</v>
-      </c>
-      <c r="D6" t="n">
-        <v>57.91129334983975</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -816,12 +776,6 @@
       <c r="B7" t="n">
         <v>30</v>
       </c>
-      <c r="C7" t="n">
-        <v>4.52435876303181</v>
-      </c>
-      <c r="D7" t="n">
-        <v>56.87394344040434</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -830,12 +784,6 @@
       <c r="B8" t="n">
         <v>30</v>
       </c>
-      <c r="C8" t="n">
-        <v>3.920292707682411</v>
-      </c>
-      <c r="D8" t="n">
-        <v>56.55592630127268</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -844,12 +792,6 @@
       <c r="B9" t="n">
         <v>31</v>
       </c>
-      <c r="C9" t="n">
-        <v>2.891111609681694</v>
-      </c>
-      <c r="D9" t="n">
-        <v>58.78386444871656</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -858,12 +800,6 @@
       <c r="B10" t="n">
         <v>31</v>
       </c>
-      <c r="C10" t="n">
-        <v>4.2394886726529</v>
-      </c>
-      <c r="D10" t="n">
-        <v>56.91767353886675</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -872,12 +808,6 @@
       <c r="B11" t="n">
         <v>31</v>
       </c>
-      <c r="C11" t="n">
-        <v>2.201501208332673</v>
-      </c>
-      <c r="D11" t="n">
-        <v>56.73757031733999</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -886,12 +816,6 @@
       <c r="B12" t="n">
         <v>31</v>
       </c>
-      <c r="C12" t="n">
-        <v>4.103295025249579</v>
-      </c>
-      <c r="D12" t="n">
-        <v>59.31914075581988</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -900,12 +824,6 @@
       <c r="B13" t="n">
         <v>31</v>
       </c>
-      <c r="C13" t="n">
-        <v>3.013587453275552</v>
-      </c>
-      <c r="D13" t="n">
-        <v>57.79027972602176</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -914,12 +832,6 @@
       <c r="B14" t="n">
         <v>31</v>
       </c>
-      <c r="C14" t="n">
-        <v>3.577674570826562</v>
-      </c>
-      <c r="D14" t="n">
-        <v>58.25042706926642</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -928,12 +840,6 @@
       <c r="B15" t="n">
         <v>33</v>
       </c>
-      <c r="C15" t="n">
-        <v>8.377561011263136</v>
-      </c>
-      <c r="D15" t="n">
-        <v>59.89815449138727</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -942,12 +848,6 @@
       <c r="B16" t="n">
         <v>33</v>
       </c>
-      <c r="C16" t="n">
-        <v>6.68827866593017</v>
-      </c>
-      <c r="D16" t="n">
-        <v>58.87521913083351</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -956,12 +856,6 @@
       <c r="B17" t="n">
         <v>34</v>
       </c>
-      <c r="C17" t="n">
-        <v>6.823617767283786</v>
-      </c>
-      <c r="D17" t="n">
-        <v>60.37041078797369</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -970,12 +864,6 @@
       <c r="B18" t="n">
         <v>34</v>
       </c>
-      <c r="C18" t="n">
-        <v>7.343278590487138</v>
-      </c>
-      <c r="D18" t="n">
-        <v>59.02498318350678</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -984,12 +872,6 @@
       <c r="B19" t="n">
         <v>34</v>
       </c>
-      <c r="C19" t="n">
-        <v>6.625711563674409</v>
-      </c>
-      <c r="D19" t="n">
-        <v>62.61387832741005</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -998,12 +880,6 @@
       <c r="B20" t="n">
         <v>34</v>
       </c>
-      <c r="C20" t="n">
-        <v>7.772155340892239</v>
-      </c>
-      <c r="D20" t="n">
-        <v>61.29514030100341</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1012,12 +888,6 @@
       <c r="B21" t="n">
         <v>34</v>
       </c>
-      <c r="C21" t="n">
-        <v>6.088012314461671</v>
-      </c>
-      <c r="D21" t="n">
-        <v>61.34652331791003</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1026,12 +896,6 @@
       <c r="B22" t="n">
         <v>34</v>
       </c>
-      <c r="C22" t="n">
-        <v>6.108234337149637</v>
-      </c>
-      <c r="D22" t="n">
-        <v>61.57512716891081</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1040,12 +904,6 @@
       <c r="B23" t="n">
         <v>34</v>
       </c>
-      <c r="C23" t="n">
-        <v>6.950286781327389</v>
-      </c>
-      <c r="D23" t="n">
-        <v>61.4398277222503</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1054,12 +912,6 @@
       <c r="B24" t="n">
         <v>34</v>
       </c>
-      <c r="C24" t="n">
-        <v>7.928584382993296</v>
-      </c>
-      <c r="D24" t="n">
-        <v>62.90389624290636</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1068,12 +920,6 @@
       <c r="B25" t="n">
         <v>34</v>
       </c>
-      <c r="C25" t="n">
-        <v>7.526419840408679</v>
-      </c>
-      <c r="D25" t="n">
-        <v>61.55166569577379</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1082,12 +928,6 @@
       <c r="B26" t="n">
         <v>35</v>
       </c>
-      <c r="C26" t="n">
-        <v>7.590394438775357</v>
-      </c>
-      <c r="D26" t="n">
-        <v>60.48014114465117</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1095,12 +935,6 @@
       </c>
       <c r="B27" t="n">
         <v>35</v>
-      </c>
-      <c r="C27" t="n">
-        <v>8.13875284890789</v>
-      </c>
-      <c r="D27" t="n">
-        <v>61.79031791955092</v>
       </c>
     </row>
   </sheetData>
